--- a/novorelatorio.xlsx
+++ b/novorelatorio.xlsx
@@ -2,29 +2,46 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,29 +61,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -139,41 +175,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -181,349 +217,308 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.86214285714286" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.58" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.86" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1" s="6">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>atividades</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="7" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Vamos iniciar este relatorio com muita vontade</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="7" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Funcionarios da contratada estavam usando os equipamento de proteção individual</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="7" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Outro teste aqui</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="7" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Reuniao realizada na sala diretoria tecnica com Laurence, Mario, MArcos e Leornado sobre a obra da ETA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="14.51" customWidth="1" style="5" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="6">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>contrato</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>nro da medicao</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>data medicao</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>valor</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>nota fiscal</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>data nf</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>data pagto</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>45755</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>019/2025</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vamos iniciar este relatorio com muita vontade</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>45756</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Funcionarios da contratada estavam usando os equipamento de proteção individual</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>45758</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Outro teste aqui</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>45756</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Reuniao realizada na sala diretoria tecnica com Laurence, Mario, MArcos e Leornado sobre a obra da ETA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>009/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15/05/2025</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14/05/2025</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15400</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>